--- a/data/人物设定/女主属性表格.xlsx
+++ b/data/人物设定/女主属性表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64538\Desktop\在建项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343BFF9-9037-4011-A936-540AF6E0B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -1032,9 +1032,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1042,21 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,30 +1384,30 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="75.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1430,512 +1430,512 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="11" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="11" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
@@ -1944,125 +1944,110 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G69" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A56:F57"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="A58:F59"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A44:F45"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="A50:F51"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:F13"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="A10:F11"/>
     <mergeCell ref="A30:F31"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
@@ -2078,19 +2063,34 @@
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="A26:F27"/>
     <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:F13"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="A10:F11"/>
+    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="A58:F59"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="A48:F49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,161 +2106,161 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
